--- a/output/TopReleases.xlsx
+++ b/output/TopReleases.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">sum</t>
+    <t xml:space="preserve">borda_sum</t>
   </si>
   <si>
     <t xml:space="preserve">TitletoLowercase</t>
@@ -32,6 +32,18 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">Charli XCX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Marías</t>
   </si>
   <si>
@@ -41,7 +53,7 @@
     <t xml:space="preserve">submarine</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Adrianne Lenker</t>
@@ -53,7 +65,19 @@
     <t xml:space="preserve">bright future</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler the Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHROMAKOPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromakopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">JPEGMAFIA</t>
@@ -65,7 +89,67 @@
     <t xml:space="preserve">i lay down my life for you</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalena Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imaginal Disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imaginal disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2hollis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waxahatchee (ft. MJ Lenderman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Back to it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right back to it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corey Lingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For What It's Worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for what its worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline Polachek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desire, I Want To Turn Into You (Everasking Edition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desire i want to turn into you everasking edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">Bladee</t>
@@ -77,7 +161,19 @@
     <t xml:space="preserve">cold visions</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendrick Lamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">Parannoul</t>
@@ -89,19 +185,7 @@
     <t xml:space="preserve">sky hundred</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charli xcx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">J.P.</t>
@@ -113,7 +197,7 @@
     <t xml:space="preserve">bad bitty</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">DJ Sabrina The Teenage DJ</t>
@@ -125,7 +209,7 @@
     <t xml:space="preserve">hex</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">MJ Nebreda, Danny From Miami, Danny Daze</t>
@@ -137,7 +221,7 @@
     <t xml:space="preserve">con cariño</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">Otomekaiga</t>
@@ -149,7 +233,19 @@
     <t xml:space="preserve">kyoukai</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mk.Gee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Star and the Dream Police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two star and the dream police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">Gawshock</t>
@@ -161,7 +257,7 @@
     <t xml:space="preserve">cool drink</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">20</t>
   </si>
   <si>
     <t xml:space="preserve">Fontaines D.C.</t>
@@ -173,31 +269,7 @@
     <t xml:space="preserve">starburster</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyler the Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHROMAKOPIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromakopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magdalena Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imaginal Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imaginal disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">NxWorries</t>
@@ -209,7 +281,7 @@
     <t xml:space="preserve">why lawd</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
+    <t xml:space="preserve">22</t>
   </si>
   <si>
     <t xml:space="preserve">Porter Robinson</t>
@@ -221,7 +293,7 @@
     <t xml:space="preserve">smile d</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
+    <t xml:space="preserve">23</t>
   </si>
   <si>
     <t xml:space="preserve">Oklou</t>
@@ -233,7 +305,7 @@
     <t xml:space="preserve">choke enough</t>
   </si>
   <si>
-    <t xml:space="preserve">18</t>
+    <t xml:space="preserve">24</t>
   </si>
   <si>
     <t xml:space="preserve">Lizzy McAlpine</t>
@@ -245,7 +317,7 @@
     <t xml:space="preserve">older and wiser</t>
   </si>
   <si>
-    <t xml:space="preserve">19</t>
+    <t xml:space="preserve">25</t>
   </si>
   <si>
     <t xml:space="preserve">Autumn Rhythm</t>
@@ -257,10 +329,10 @@
     <t xml:space="preserve">nothing gold</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joey Valence &amp; Brae</t>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey Valence &amp;amp; Brae</t>
   </si>
   <si>
     <t xml:space="preserve">NO HANDS</t>
@@ -269,7 +341,7 @@
     <t xml:space="preserve">no hands</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
+    <t xml:space="preserve">27</t>
   </si>
   <si>
     <t xml:space="preserve">Fakemink</t>
@@ -281,7 +353,7 @@
     <t xml:space="preserve">wild one</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
+    <t xml:space="preserve">28</t>
   </si>
   <si>
     <t xml:space="preserve">Stoneyard</t>
@@ -293,7 +365,7 @@
     <t xml:space="preserve">twenty ft tall</t>
   </si>
   <si>
-    <t xml:space="preserve">23</t>
+    <t xml:space="preserve">29</t>
   </si>
   <si>
     <t xml:space="preserve">Favourite</t>
@@ -302,43 +374,7 @@
     <t xml:space="preserve">favourite</t>
   </si>
   <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kendrick Lamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gnx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2hollis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waxahatchee, MJ Lenderman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Back to It</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right back to it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
+    <t xml:space="preserve">30</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Keef</t>
@@ -350,7 +386,7 @@
     <t xml:space="preserve">almighty so 2</t>
   </si>
   <si>
-    <t xml:space="preserve">28</t>
+    <t xml:space="preserve">31</t>
   </si>
   <si>
     <t xml:space="preserve">Kali Uchis</t>
@@ -362,7 +398,7 @@
     <t xml:space="preserve">orquídeas</t>
   </si>
   <si>
-    <t xml:space="preserve">29</t>
+    <t xml:space="preserve">32</t>
   </si>
   <si>
     <t xml:space="preserve">MICHELLE</t>
@@ -374,7 +410,7 @@
     <t xml:space="preserve">songs about you specifically</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">33</t>
   </si>
   <si>
     <t xml:space="preserve">NEW YORK</t>
@@ -386,7 +422,7 @@
     <t xml:space="preserve">rapstar</t>
   </si>
   <si>
-    <t xml:space="preserve">31</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">Fcukers</t>
@@ -398,7 +434,7 @@
     <t xml:space="preserve">baggy$$</t>
   </si>
   <si>
-    <t xml:space="preserve">32</t>
+    <t xml:space="preserve">35</t>
   </si>
   <si>
     <t xml:space="preserve">tomcbumpz</t>
@@ -410,7 +446,7 @@
     <t xml:space="preserve">good listener</t>
   </si>
   <si>
-    <t xml:space="preserve">33</t>
+    <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">Nala Sinephro</t>
@@ -422,7 +458,7 @@
     <t xml:space="preserve">continuum 1</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">37</t>
   </si>
   <si>
     <t xml:space="preserve">MJ Lenderman</t>
@@ -434,31 +470,7 @@
     <t xml:space="preserve">shes leaving you</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corey Lingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For What It's Worth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for what its worth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caroline Polachek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desire, I Want To Turn Into You (Everasking Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desire i want to turn into you everasking edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
+    <t xml:space="preserve">38</t>
   </si>
   <si>
     <t xml:space="preserve">Mdou Moctar</t>
@@ -470,7 +482,7 @@
     <t xml:space="preserve">funeral for justice</t>
   </si>
   <si>
-    <t xml:space="preserve">38</t>
+    <t xml:space="preserve">39</t>
   </si>
   <si>
     <t xml:space="preserve">Sarah Kinsley</t>
@@ -482,7 +494,7 @@
     <t xml:space="preserve">escaper</t>
   </si>
   <si>
-    <t xml:space="preserve">39</t>
+    <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">Bassvictim</t>
@@ -494,7 +506,7 @@
     <t xml:space="preserve">basspunk</t>
   </si>
   <si>
-    <t xml:space="preserve">40</t>
+    <t xml:space="preserve">41</t>
   </si>
   <si>
     <t xml:space="preserve">Molly Lewis</t>
@@ -506,7 +518,7 @@
     <t xml:space="preserve">on the lips</t>
   </si>
   <si>
-    <t xml:space="preserve">41</t>
+    <t xml:space="preserve">42</t>
   </si>
   <si>
     <t xml:space="preserve">Manning Fireworks</t>
@@ -515,7 +527,7 @@
     <t xml:space="preserve">manning fireworks</t>
   </si>
   <si>
-    <t xml:space="preserve">42</t>
+    <t xml:space="preserve">43</t>
   </si>
   <si>
     <t xml:space="preserve">Damien Jurado</t>
@@ -527,7 +539,7 @@
     <t xml:space="preserve">far out to where we were then the maraqopa demos</t>
   </si>
   <si>
-    <t xml:space="preserve">43</t>
+    <t xml:space="preserve">44</t>
   </si>
   <si>
     <t xml:space="preserve">GG12</t>
@@ -539,7 +551,7 @@
     <t xml:space="preserve">nirvanarmx</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
+    <t xml:space="preserve">45</t>
   </si>
   <si>
     <t xml:space="preserve">Be Strangers</t>
@@ -548,7 +560,7 @@
     <t xml:space="preserve">be strangers</t>
   </si>
   <si>
-    <t xml:space="preserve">45</t>
+    <t xml:space="preserve">46</t>
   </si>
   <si>
     <t xml:space="preserve">Bring Me The Horizon</t>
@@ -560,7 +572,7 @@
     <t xml:space="preserve">post human nex gen</t>
   </si>
   <si>
-    <t xml:space="preserve">46</t>
+    <t xml:space="preserve">47</t>
   </si>
   <si>
     <t xml:space="preserve">Addison Rae</t>
@@ -572,7 +584,7 @@
     <t xml:space="preserve">diet pepsi</t>
   </si>
   <si>
-    <t xml:space="preserve">47</t>
+    <t xml:space="preserve">48</t>
   </si>
   <si>
     <t xml:space="preserve">Hinds</t>
@@ -584,7 +596,7 @@
     <t xml:space="preserve">viva hinds</t>
   </si>
   <si>
-    <t xml:space="preserve">48</t>
+    <t xml:space="preserve">49</t>
   </si>
   <si>
     <t xml:space="preserve">GG_BLENDS2</t>
@@ -593,7 +605,7 @@
     <t xml:space="preserve">ggblends2</t>
   </si>
   <si>
-    <t xml:space="preserve">49</t>
+    <t xml:space="preserve">50</t>
   </si>
   <si>
     <t xml:space="preserve">toe</t>
@@ -605,7 +617,7 @@
     <t xml:space="preserve">loneliness will shine</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
+    <t xml:space="preserve">51</t>
   </si>
   <si>
     <t xml:space="preserve">The Cure</t>
@@ -617,18 +629,6 @@
     <t xml:space="preserve">alone</t>
   </si>
   <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mk.Gee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Star and the Dream Police</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two star and the dream police</t>
-  </si>
-  <si>
     <t xml:space="preserve">52</t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">53</t>
   </si>
   <si>
-    <t xml:space="preserve">Fimiguerrero, Len &amp; Lancey Foux</t>
+    <t xml:space="preserve">Fimiguerrero, Len &amp;amp; Lancey Foux</t>
   </si>
   <si>
     <t xml:space="preserve">Conglomerate</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">54</t>
   </si>
   <si>
-    <t xml:space="preserve">death's dynamic shroud &amp; galen tipton</t>
+    <t xml:space="preserve">death's dynamic shroud &amp;amp; galen tipton</t>
   </si>
   <si>
     <t xml:space="preserve">You Like Music</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">SUMIN &amp; Slom</t>
+    <t xml:space="preserve">SUMIN &amp;amp; Slom</t>
   </si>
   <si>
     <t xml:space="preserve">MINISERIES 2</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">Swoopy &amp; pradaaslife</t>
+    <t xml:space="preserve">Swoopy &amp;amp; pradaaslife</t>
   </si>
   <si>
     <t xml:space="preserve">Treasure Hunt 2</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">YT</t>
   </si>
   <si>
-    <t xml:space="preserve">Black &amp; Tan</t>
+    <t xml:space="preserve">Black &amp;amp; Tan</t>
   </si>
   <si>
     <t xml:space="preserve">black and tan</t>
@@ -1595,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1612,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1629,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1646,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06666666666667</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1663,7 +1663,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05555555555556</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1680,7 +1680,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>1.05</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1697,7 +1697,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -1714,7 +1714,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1731,7 +1731,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -1748,7 +1748,7 @@
         <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -1765,7 +1765,7 @@
         <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -1782,7 +1782,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>52</v>
@@ -1799,7 +1799,7 @@
         <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>0.833333333333333</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -1816,7 +1816,7 @@
         <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -1833,7 +1833,7 @@
         <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>64</v>
@@ -1850,7 +1850,7 @@
         <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -1867,7 +1867,7 @@
         <v>71</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
@@ -1884,7 +1884,7 @@
         <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
@@ -1901,7 +1901,7 @@
         <v>79</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>80</v>
@@ -1918,7 +1918,7 @@
         <v>83</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>84</v>
@@ -1935,7 +1935,7 @@
         <v>87</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
         <v>92</v>
@@ -1963,115 +1963,115 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" t="n">
-        <v>0.404761904761905</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" t="n">
-        <v>0.361111111111111</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="n">
-        <v>0.361111111111111</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" t="n">
-        <v>0.333333333333333</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="n">
-        <v>0.333333333333333</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>118</v>
       </c>
       <c r="D30" t="n">
-        <v>0.333333333333333</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>119</v>
@@ -2088,7 +2088,7 @@
         <v>122</v>
       </c>
       <c r="D31" t="n">
-        <v>0.333333333333333</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
         <v>123</v>
@@ -2105,7 +2105,7 @@
         <v>126</v>
       </c>
       <c r="D32" t="n">
-        <v>0.333333333333333</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>127</v>
@@ -2122,7 +2122,7 @@
         <v>130</v>
       </c>
       <c r="D33" t="n">
-        <v>0.333333333333333</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>131</v>
@@ -2139,7 +2139,7 @@
         <v>134</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333333333333333</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
         <v>135</v>
@@ -2156,7 +2156,7 @@
         <v>138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.333333333333333</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
         <v>139</v>
@@ -2173,7 +2173,7 @@
         <v>142</v>
       </c>
       <c r="D36" t="n">
-        <v>0.311111111111111</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
         <v>143</v>
@@ -2190,7 +2190,7 @@
         <v>146</v>
       </c>
       <c r="D37" t="n">
-        <v>0.285714285714286</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
         <v>147</v>
@@ -2207,7 +2207,7 @@
         <v>150</v>
       </c>
       <c r="D38" t="n">
-        <v>0.25</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
         <v>151</v>
@@ -2224,7 +2224,7 @@
         <v>154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
         <v>155</v>
@@ -2241,7 +2241,7 @@
         <v>158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
         <v>159</v>
@@ -2258,7 +2258,7 @@
         <v>162</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>163</v>
@@ -2269,30 +2269,30 @@
         <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
         <v>169</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
         <v>170</v>
@@ -2309,7 +2309,7 @@
         <v>173</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>174</v>
@@ -2320,30 +2320,30 @@
         <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
         <v>180</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
         <v>181</v>
@@ -2360,7 +2360,7 @@
         <v>184</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
         <v>185</v>
@@ -2377,7 +2377,7 @@
         <v>188</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
         <v>189</v>
@@ -2388,30 +2388,30 @@
         <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
         <v>195</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>196</v>
@@ -2428,7 +2428,7 @@
         <v>199</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
         <v>200</v>
@@ -2445,7 +2445,7 @@
         <v>203</v>
       </c>
       <c r="D52" t="n">
-        <v>0.183333333333333</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>204</v>
@@ -2462,7 +2462,7 @@
         <v>207</v>
       </c>
       <c r="D53" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>208</v>
@@ -2479,7 +2479,7 @@
         <v>211</v>
       </c>
       <c r="D54" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>212</v>
@@ -2496,7 +2496,7 @@
         <v>215</v>
       </c>
       <c r="D55" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>216</v>
@@ -2513,7 +2513,7 @@
         <v>219</v>
       </c>
       <c r="D56" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>220</v>
@@ -2530,7 +2530,7 @@
         <v>223</v>
       </c>
       <c r="D57" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
         <v>224</v>
@@ -2547,7 +2547,7 @@
         <v>227</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>228</v>
@@ -2564,7 +2564,7 @@
         <v>231</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
         <v>232</v>
@@ -2581,7 +2581,7 @@
         <v>235</v>
       </c>
       <c r="D60" t="n">
-        <v>0.166666666666667</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
         <v>236</v>
@@ -2598,7 +2598,7 @@
         <v>239</v>
       </c>
       <c r="D61" t="n">
-        <v>0.142857142857143</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
         <v>240</v>
@@ -2615,7 +2615,7 @@
         <v>243</v>
       </c>
       <c r="D62" t="n">
-        <v>0.142857142857143</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
         <v>244</v>
@@ -2632,7 +2632,7 @@
         <v>247</v>
       </c>
       <c r="D63" t="n">
-        <v>0.142857142857143</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>248</v>
@@ -2649,7 +2649,7 @@
         <v>251</v>
       </c>
       <c r="D64" t="n">
-        <v>0.142857142857143</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
         <v>252</v>
@@ -2666,7 +2666,7 @@
         <v>255</v>
       </c>
       <c r="D65" t="n">
-        <v>0.142857142857143</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
         <v>256</v>
@@ -2683,7 +2683,7 @@
         <v>258</v>
       </c>
       <c r="D66" t="n">
-        <v>0.142857142857143</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
         <v>259</v>
@@ -2700,7 +2700,7 @@
         <v>262</v>
       </c>
       <c r="D67" t="n">
-        <v>0.125</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
         <v>263</v>
@@ -2717,7 +2717,7 @@
         <v>266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>267</v>
@@ -2734,7 +2734,7 @@
         <v>270</v>
       </c>
       <c r="D69" t="n">
-        <v>0.125</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
         <v>271</v>
@@ -2751,7 +2751,7 @@
         <v>274</v>
       </c>
       <c r="D70" t="n">
-        <v>0.125</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>275</v>
@@ -2768,7 +2768,7 @@
         <v>278</v>
       </c>
       <c r="D71" t="n">
-        <v>0.125</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>279</v>
@@ -2785,7 +2785,7 @@
         <v>282</v>
       </c>
       <c r="D72" t="n">
-        <v>0.125</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>283</v>
@@ -2802,7 +2802,7 @@
         <v>286</v>
       </c>
       <c r="D73" t="n">
-        <v>0.111111111111111</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
         <v>287</v>
@@ -2819,7 +2819,7 @@
         <v>290</v>
       </c>
       <c r="D74" t="n">
-        <v>0.111111111111111</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
         <v>291</v>
@@ -2836,7 +2836,7 @@
         <v>294</v>
       </c>
       <c r="D75" t="n">
-        <v>0.111111111111111</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>295</v>
@@ -2853,7 +2853,7 @@
         <v>297</v>
       </c>
       <c r="D76" t="n">
-        <v>0.111111111111111</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
         <v>298</v>
@@ -2870,7 +2870,7 @@
         <v>301</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
         <v>302</v>
@@ -2887,7 +2887,7 @@
         <v>305</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
         <v>306</v>
@@ -2904,7 +2904,7 @@
         <v>309</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
         <v>310</v>
@@ -2921,7 +2921,7 @@
         <v>313</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
         <v>314</v>
@@ -2938,7 +2938,7 @@
         <v>317</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0909090909090909</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>318</v>
@@ -2955,7 +2955,7 @@
         <v>321</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0909090909090909</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
         <v>322</v>
@@ -2972,7 +2972,7 @@
         <v>325</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0909090909090909</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
         <v>326</v>
@@ -2989,7 +2989,7 @@
         <v>329</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0909090909090909</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
         <v>330</v>
@@ -3006,7 +3006,7 @@
         <v>333</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0909090909090909</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>334</v>
@@ -3023,7 +3023,7 @@
         <v>337</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0833333333333333</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
         <v>338</v>
@@ -3040,7 +3040,7 @@
         <v>341</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0833333333333333</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
         <v>342</v>
@@ -3057,7 +3057,7 @@
         <v>345</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0833333333333333</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
         <v>346</v>
@@ -3074,7 +3074,7 @@
         <v>349</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0769230769230769</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
         <v>350</v>
@@ -3091,7 +3091,7 @@
         <v>353</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0769230769230769</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
         <v>354</v>
@@ -3108,7 +3108,7 @@
         <v>357</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0769230769230769</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
         <v>358</v>
@@ -3125,7 +3125,7 @@
         <v>361</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0769230769230769</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
         <v>362</v>
@@ -3142,7 +3142,7 @@
         <v>365</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0714285714285714</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
         <v>365</v>
@@ -3159,7 +3159,7 @@
         <v>368</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0714285714285714</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
         <v>369</v>
@@ -3176,7 +3176,7 @@
         <v>372</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0666666666666667</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
         <v>373</v>
@@ -3193,7 +3193,7 @@
         <v>376</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0625</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
         <v>377</v>
@@ -3210,7 +3210,7 @@
         <v>380</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0625</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
         <v>381</v>
@@ -3227,7 +3227,7 @@
         <v>384</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0588235294117647</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
         <v>385</v>
@@ -3244,7 +3244,7 @@
         <v>388</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0588235294117647</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
         <v>388</v>
@@ -3261,7 +3261,7 @@
         <v>391</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0555555555555556</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
         <v>392</v>
@@ -3278,7 +3278,7 @@
         <v>395</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0526315789473684</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
         <v>396</v>
@@ -3295,7 +3295,7 @@
         <v>399</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0526315789473684</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
         <v>399</v>
@@ -3312,7 +3312,7 @@
         <v>402</v>
       </c>
       <c r="D103" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>403</v>
@@ -3329,7 +3329,7 @@
         <v>406</v>
       </c>
       <c r="D104" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>407</v>
